--- a/data/日报历史数据/一亿送课活动日报看板-03-24.xlsx
+++ b/data/日报历史数据/一亿送课活动日报看板-03-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29740" windowHeight="16060"/>
+    <workbookView windowWidth="27920" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="日报" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分析结论：
 1.当日已申请企业数267，相比昨日有些许的上涨，是一个好苗头，再接再厉，加油！💪
 2.更换指标之后，累计建立联系6597家企业，</t>
@@ -120,6 +125,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>占比申请企业53%</t>
@@ -127,6 +133,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，由于有个人混杂，体感上感觉还可以，不过依然有提升空间，</t>
@@ -135,6 +142,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>领取转化率50%也有很大提升空间</t>
@@ -142,6 +150,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。（这里可能存在多家企业公用同一张海报情况，导致数据偏低）
@@ -151,6 +160,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>当日领课5817人，相比昨日提升253%，上课2450人，相比昨天提升232%</t>
@@ -158,6 +168,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，进步非常明显，分社在领课上有明显突破，大大的赞！其中总部和杭州表现格外优秀，均有1000人以上。广州，上海，北京也有600多人。 从累计上来看，当日相比昨日新增领取公司281家，</t>
@@ -166,6 +177,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>不过企业平均领取人数依旧13人</t>
@@ -173,6 +185,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，体感上相对还是偏低,企业领取头部效应依旧明显，再接再厉💪
@@ -182,6 +195,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>北京和杭州做的非常好，达到50%以上</t>
@@ -189,6 +203,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>，总部，广州，上海，相比来看上课转化率还低一些，继续加油💪
@@ -198,6 +213,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>依旧缺乏新增有效曝光渠道</t>
@@ -205,6 +221,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>。
@@ -219,6 +236,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>说明这次的影响相比之前大活动差一些</t>
@@ -226,6 +244,7 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">。
@@ -502,13 +521,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
@@ -673,8 +692,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,17 +723,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,26 +746,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -750,7 +762,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -773,14 +785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -797,7 +801,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +826,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -855,12 +873,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -873,7 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +903,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,55 +1017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,31 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,37 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,6 +1129,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1138,21 +1171,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1168,145 +1186,145 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1350,13 +1368,13 @@
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1389,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,16 +1398,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1398,7 +1416,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,16 +1437,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,19 +1464,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1473,14 +1476,8 @@
     <xf numFmtId="179" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2607,6 +2604,7 @@
               <a:rPr altLang="en-US"/>
               <a:t>渠道分布</a:t>
             </a:r>
+            <a:endParaRPr altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5292,8 +5290,8 @@
   <sheetPr/>
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="W50" sqref="W50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6"/>
@@ -5338,17 +5336,17 @@
       <c r="K1" s="26"/>
       <c r="L1" s="26"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="56" t="s">
+      <c r="N1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5426,13 +5424,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="30"/>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="43" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="30" t="s">
@@ -5442,27 +5440,27 @@
         <v>14</v>
       </c>
       <c r="M3" s="30"/>
-      <c r="N3" s="57">
+      <c r="N3" s="50">
         <f>P3*R3*T3*V3</f>
         <v>43579</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57">
+      <c r="O3" s="50"/>
+      <c r="P3" s="50">
         <f>H4</f>
         <v>12443</v>
       </c>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35">
         <f>R5/P3</f>
         <v>0.530177609901149</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52">
+      <c r="S3" s="35"/>
+      <c r="T3" s="35">
         <f>T5/R5</f>
         <v>0.495073518265878</v>
       </c>
-      <c r="U3" s="57"/>
-      <c r="V3" s="59">
+      <c r="U3" s="50"/>
+      <c r="V3" s="52">
         <f>V5/T5</f>
         <v>13.343233312921</v>
       </c>
@@ -5473,44 +5471,44 @@
         <f>INDEX(总体数据!B:B,MATCH(A2,总体数据!A:A,0))</f>
         <v>267</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="29">
         <f>INDEX(总体数据!C:C,MATCH(A2,总体数据!A:A,0))</f>
         <v>82</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <f>INDEX(总体数据!D:D,MATCH(A2,总体数据!A:A,0))</f>
         <v>36</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <f>INDEX(总体数据!E:E,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.3071</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <f>INDEX(总体数据!F:F,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.439</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="34">
+      <c r="G4" s="30"/>
+      <c r="H4" s="29">
         <f>INDEX(总体数据!G:G,MATCH(A2,总体数据!A:A,0))</f>
         <v>12443</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="29">
         <f>INDEX(总体数据!H:H,MATCH(A2,总体数据!A:A,0))</f>
         <v>6597</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="29">
         <f>INDEX(总体数据!I:I,MATCH(A2,总体数据!A:A,0))</f>
         <v>3266</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <f>INDEX(总体数据!J:J,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.5302</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <f>INDEX(总体数据!K:K,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4951</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="50"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
@@ -5533,42 +5531,42 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <f>INDEX(总体数据!B:B,MATCH(A5,总体数据!A:A,0))</f>
         <v>0.055335968</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35">
         <f>INDEX(总体数据!D:D,MATCH(A5,总体数据!A:A,0))</f>
         <v>0.384615385</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
       <c r="M5" s="30"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50">
         <f>I4</f>
         <v>6597</v>
       </c>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57">
+      <c r="S5" s="50"/>
+      <c r="T5" s="50">
         <f>J4</f>
         <v>3266</v>
       </c>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57">
+      <c r="U5" s="50"/>
+      <c r="V5" s="50">
         <f>H7</f>
         <v>43579</v>
       </c>
@@ -5580,35 +5578,35 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="32"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="47" t="s">
+      <c r="K6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="30" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="30"/>
@@ -5628,45 +5626,45 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="33">
         <f>INDEX(总体数据!N:N,MATCH(A2,总体数据!A:A,0))</f>
         <v>5817</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="29">
         <f>INDEX(总体数据!O:O,MATCH(A2,总体数据!A:A,0))</f>
         <v>4151</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <f>INDEX(总体数据!P:P,MATCH(A2,总体数据!A:A,0))</f>
         <v>2450</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <f>INDEX(总体数据!Q:Q,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.7136</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <f>INDEX(总体数据!R:R,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4212</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="34">
+      <c r="G7" s="30"/>
+      <c r="H7" s="29">
         <f>INDEX(总体数据!S:S,MATCH(A2,总体数据!A:A,0))</f>
         <v>43579</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="29">
         <f>INDEX(总体数据!T:T,MATCH(A2,总体数据!A:A,0))</f>
         <v>28888</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="29">
         <f>INDEX(总体数据!U:U,MATCH(A2,总体数据!A:A,0))</f>
         <v>19257</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <f>INDEX(总体数据!V:V,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.6629</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <f>INDEX(总体数据!W:W,MATCH(A2,总体数据!A:A,0))</f>
         <v>0.4419</v>
       </c>
@@ -5682,18 +5680,18 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <f>INDEX(总体数据!N:N,MATCH(A8,总体数据!A:A,0))</f>
         <v>2.534021871</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <f>INDEX(总体数据!O:O,MATCH(A8,总体数据!A:A,0))</f>
         <v>2.850649351</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="37">
         <f>INDEX(总体数据!P:P,MATCH(A8,总体数据!A:A,0))</f>
         <v>2.319783198</v>
       </c>
@@ -5717,7 +5715,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="30"/>
@@ -5743,7 +5741,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="40"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -5767,7 +5765,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="40"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -5791,7 +5789,7 @@
       <c r="V11" s="30"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="40"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="30"/>
       <c r="C12" s="1"/>
       <c r="D12" s="30" t="s">
@@ -5806,18 +5804,18 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="40"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -5841,7 +5839,7 @@
       <c r="V13" s="30"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="40"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -5857,15 +5855,15 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="40"/>
+      <c r="A15" s="38"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
@@ -5889,7 +5887,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="40"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
@@ -5908,7 +5906,7 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="40"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -5927,7 +5925,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="40"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -5946,7 +5944,7 @@
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="40"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -5965,7 +5963,7 @@
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="40"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -5984,7 +5982,7 @@
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="40"/>
+      <c r="A21" s="38"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -6003,7 +6001,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="40"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -6022,7 +6020,7 @@
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="40"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -6041,7 +6039,7 @@
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="40"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -6089,7 +6087,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="28" t="s">
         <v>28</v>
       </c>
@@ -6114,7 +6112,7 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -6133,19 +6131,19 @@
         <v>14</v>
       </c>
       <c r="G27" s="29"/>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="46" t="s">
+      <c r="I27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="43" t="s">
         <v>14</v>
       </c>
       <c r="M27" s="1"/>
@@ -6163,7 +6161,7 @@
         <f>分社漏斗数据!C2</f>
         <v>85</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="40">
         <f>分社漏斗数据!D2</f>
         <v>16</v>
       </c>
@@ -6171,11 +6169,11 @@
         <f>分社漏斗数据!E2</f>
         <v>10</v>
       </c>
-      <c r="E28" s="51">
+      <c r="E28" s="46">
         <f>分社漏斗数据!F2</f>
         <v>0.1882</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="35">
         <f>分社漏斗数据!G2</f>
         <v>0.625</v>
       </c>
@@ -6192,11 +6190,11 @@
         <f>分社漏斗数据!L2</f>
         <v>319</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="35">
         <f>分社漏斗数据!M2</f>
         <v>0.6402</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="35">
         <f>分社漏斗数据!N2</f>
         <v>0.5273</v>
       </c>
@@ -6215,7 +6213,7 @@
         <f>分社漏斗数据!C3</f>
         <v>31</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="40">
         <f>分社漏斗数据!D3</f>
         <v>3</v>
       </c>
@@ -6223,11 +6221,11 @@
         <f>分社漏斗数据!E3</f>
         <v>0</v>
       </c>
-      <c r="E29" s="51">
+      <c r="E29" s="46">
         <f>分社漏斗数据!F3</f>
         <v>0.0968</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="35">
         <f>分社漏斗数据!G3</f>
         <v>0</v>
       </c>
@@ -6244,11 +6242,11 @@
         <f>分社漏斗数据!L3</f>
         <v>245</v>
       </c>
-      <c r="K29" s="52">
+      <c r="K29" s="35">
         <f>分社漏斗数据!M3</f>
         <v>0.4276</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="35">
         <f>分社漏斗数据!N3</f>
         <v>0.2649</v>
       </c>
@@ -6267,7 +6265,7 @@
         <f>分社漏斗数据!C4</f>
         <v>23</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="40">
         <f>分社漏斗数据!D4</f>
         <v>14</v>
       </c>
@@ -6275,11 +6273,11 @@
         <f>分社漏斗数据!E4</f>
         <v>2</v>
       </c>
-      <c r="E30" s="51">
+      <c r="E30" s="46">
         <f>分社漏斗数据!F4</f>
         <v>0.6087</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="35">
         <f>分社漏斗数据!G4</f>
         <v>0.1429</v>
       </c>
@@ -6296,11 +6294,11 @@
         <f>分社漏斗数据!L4</f>
         <v>408</v>
       </c>
-      <c r="K30" s="52">
+      <c r="K30" s="35">
         <f>分社漏斗数据!M4</f>
         <v>0.9492</v>
       </c>
-      <c r="L30" s="52">
+      <c r="L30" s="35">
         <f>分社漏斗数据!N4</f>
         <v>0.3072</v>
       </c>
@@ -6319,7 +6317,7 @@
         <f>分社漏斗数据!C5</f>
         <v>21</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="40">
         <f>分社漏斗数据!D5</f>
         <v>8</v>
       </c>
@@ -6327,11 +6325,11 @@
         <f>分社漏斗数据!E5</f>
         <v>6</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="46">
         <f>分社漏斗数据!F5</f>
         <v>0.381</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="35">
         <f>分社漏斗数据!G5</f>
         <v>0.75</v>
       </c>
@@ -6348,11 +6346,11 @@
         <f>分社漏斗数据!L5</f>
         <v>217</v>
       </c>
-      <c r="K31" s="52">
+      <c r="K31" s="35">
         <f>分社漏斗数据!M5</f>
         <v>0.2558</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="35">
         <f>分社漏斗数据!N5</f>
         <v>0.6824</v>
       </c>
@@ -6371,7 +6369,7 @@
         <f>分社漏斗数据!C6</f>
         <v>20</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="40">
         <f>分社漏斗数据!D6</f>
         <v>6</v>
       </c>
@@ -6379,11 +6377,11 @@
         <f>分社漏斗数据!E6</f>
         <v>4</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="46">
         <f>分社漏斗数据!F6</f>
         <v>0.3</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="35">
         <f>分社漏斗数据!G6</f>
         <v>0.6667</v>
       </c>
@@ -6400,11 +6398,11 @@
         <f>分社漏斗数据!L6</f>
         <v>577</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="35">
         <f>分社漏斗数据!M6</f>
         <v>0.6385</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="35">
         <f>分社漏斗数据!N6</f>
         <v>0.829</v>
       </c>
@@ -6423,7 +6421,7 @@
         <f>分社漏斗数据!C7</f>
         <v>12</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="40">
         <f>分社漏斗数据!D7</f>
         <v>7</v>
       </c>
@@ -6431,11 +6429,11 @@
         <f>分社漏斗数据!E7</f>
         <v>2</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="46">
         <f>分社漏斗数据!F7</f>
         <v>0.5833</v>
       </c>
-      <c r="F33" s="52">
+      <c r="F33" s="35">
         <f>分社漏斗数据!G7</f>
         <v>0.2857</v>
       </c>
@@ -6452,11 +6450,11 @@
         <f>分社漏斗数据!L7</f>
         <v>42</v>
       </c>
-      <c r="K33" s="52">
+      <c r="K33" s="35">
         <f>分社漏斗数据!M7</f>
         <v>0.3066</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="35">
         <f>分社漏斗数据!N7</f>
         <v>0.2199</v>
       </c>
@@ -6475,7 +6473,7 @@
         <f>分社漏斗数据!C8</f>
         <v>12</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="40">
         <f>分社漏斗数据!D8</f>
         <v>1</v>
       </c>
@@ -6483,11 +6481,11 @@
         <f>分社漏斗数据!E8</f>
         <v>0</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="46">
         <f>分社漏斗数据!F8</f>
         <v>0.0833</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="35">
         <f>分社漏斗数据!G8</f>
         <v>0</v>
       </c>
@@ -6504,11 +6502,11 @@
         <f>分社漏斗数据!L8</f>
         <v>137</v>
       </c>
-      <c r="K34" s="52">
+      <c r="K34" s="35">
         <f>分社漏斗数据!M8</f>
         <v>0.2869</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="35">
         <f>分社漏斗数据!N8</f>
         <v>0.8107</v>
       </c>
@@ -6537,7 +6535,7 @@
         <f>分社漏斗数据!C9</f>
         <v>11</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="40">
         <f>分社漏斗数据!D9</f>
         <v>8</v>
       </c>
@@ -6545,11 +6543,11 @@
         <f>分社漏斗数据!E9</f>
         <v>4</v>
       </c>
-      <c r="E35" s="51">
+      <c r="E35" s="46">
         <f>分社漏斗数据!F9</f>
         <v>0.7273</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="35">
         <f>分社漏斗数据!G9</f>
         <v>0.5</v>
       </c>
@@ -6566,11 +6564,11 @@
         <f>分社漏斗数据!L9</f>
         <v>167</v>
       </c>
-      <c r="K35" s="52">
+      <c r="K35" s="35">
         <f>分社漏斗数据!M9</f>
         <v>0.9146</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="35">
         <f>分社漏斗数据!N9</f>
         <v>0.3804</v>
       </c>
@@ -6599,7 +6597,7 @@
         <f>分社漏斗数据!C10</f>
         <v>11</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="40">
         <f>分社漏斗数据!D10</f>
         <v>5</v>
       </c>
@@ -6607,11 +6605,11 @@
         <f>分社漏斗数据!E10</f>
         <v>1</v>
       </c>
-      <c r="E36" s="51">
+      <c r="E36" s="46">
         <f>分社漏斗数据!F10</f>
         <v>0.4545</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="35">
         <f>分社漏斗数据!G10</f>
         <v>0.2</v>
       </c>
@@ -6628,11 +6626,11 @@
         <f>分社漏斗数据!L10</f>
         <v>72</v>
       </c>
-      <c r="K36" s="52">
+      <c r="K36" s="35">
         <f>分社漏斗数据!M10</f>
         <v>0.5593</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="35">
         <f>分社漏斗数据!N10</f>
         <v>0.2677</v>
       </c>
@@ -6661,7 +6659,7 @@
         <f>分社漏斗数据!C11</f>
         <v>9</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="40">
         <f>分社漏斗数据!D11</f>
         <v>2</v>
       </c>
@@ -6669,11 +6667,11 @@
         <f>分社漏斗数据!E11</f>
         <v>1</v>
       </c>
-      <c r="E37" s="51">
+      <c r="E37" s="46">
         <f>分社漏斗数据!F11</f>
         <v>0.2222</v>
       </c>
-      <c r="F37" s="52">
+      <c r="F37" s="35">
         <f>分社漏斗数据!G11</f>
         <v>0.5</v>
       </c>
@@ -6690,26 +6688,26 @@
         <f>分社漏斗数据!L11</f>
         <v>105</v>
       </c>
-      <c r="K37" s="52">
+      <c r="K37" s="35">
         <f>分社漏斗数据!M11</f>
         <v>0.6845</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="35">
         <f>分社漏斗数据!N11</f>
         <v>0.4565</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="58" t="s">
+      <c r="N37" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="58"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -6725,7 +6723,7 @@
         <f>分社漏斗数据!C12</f>
         <v>8</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="40">
         <f>分社漏斗数据!D12</f>
         <v>0</v>
       </c>
@@ -6733,11 +6731,11 @@
         <f>分社漏斗数据!E12</f>
         <v>0</v>
       </c>
-      <c r="E38" s="51">
+      <c r="E38" s="46">
         <f>分社漏斗数据!F12</f>
         <v>0</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="35">
         <f>分社漏斗数据!G12</f>
         <v>0</v>
       </c>
@@ -6754,24 +6752,24 @@
         <f>分社漏斗数据!L12</f>
         <v>1</v>
       </c>
-      <c r="K38" s="52">
+      <c r="K38" s="35">
         <f>分社漏斗数据!M12</f>
         <v>0.003</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="35">
         <f>分社漏斗数据!N12</f>
         <v>0.5</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -6787,7 +6785,7 @@
         <f>分社漏斗数据!C13</f>
         <v>8</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="40">
         <f>分社漏斗数据!D13</f>
         <v>3</v>
       </c>
@@ -6795,11 +6793,11 @@
         <f>分社漏斗数据!E13</f>
         <v>0</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E39" s="46">
         <f>分社漏斗数据!F13</f>
         <v>0.375</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="35">
         <f>分社漏斗数据!G13</f>
         <v>0</v>
       </c>
@@ -6816,24 +6814,24 @@
         <f>分社漏斗数据!L13</f>
         <v>111</v>
       </c>
-      <c r="K39" s="52">
+      <c r="K39" s="35">
         <f>分社漏斗数据!M13</f>
         <v>0.3052</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="35">
         <f>分社漏斗数据!N13</f>
         <v>0.7303</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -6849,7 +6847,7 @@
         <f>分社漏斗数据!C14</f>
         <v>5</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="40">
         <f>分社漏斗数据!D14</f>
         <v>3</v>
       </c>
@@ -6857,11 +6855,11 @@
         <f>分社漏斗数据!E14</f>
         <v>2</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="46">
         <f>分社漏斗数据!F14</f>
         <v>0.6</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="35">
         <f>分社漏斗数据!G14</f>
         <v>0.6667</v>
       </c>
@@ -6878,24 +6876,24 @@
         <f>分社漏斗数据!L14</f>
         <v>192</v>
       </c>
-      <c r="K40" s="52">
+      <c r="K40" s="35">
         <f>分社漏斗数据!M14</f>
         <v>0.7766</v>
       </c>
-      <c r="L40" s="52">
+      <c r="L40" s="35">
         <f>分社漏斗数据!N14</f>
         <v>0.6421</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6911,7 +6909,7 @@
         <f>分社漏斗数据!C15</f>
         <v>4</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="40">
         <f>分社漏斗数据!D15</f>
         <v>1</v>
       </c>
@@ -6919,11 +6917,11 @@
         <f>分社漏斗数据!E15</f>
         <v>1</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E41" s="46">
         <f>分社漏斗数据!F15</f>
         <v>0.25</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="35">
         <f>分社漏斗数据!G15</f>
         <v>1</v>
       </c>
@@ -6940,24 +6938,24 @@
         <f>分社漏斗数据!L15</f>
         <v>182</v>
       </c>
-      <c r="K41" s="52">
+      <c r="K41" s="35">
         <f>分社漏斗数据!M15</f>
         <v>0.4979</v>
       </c>
-      <c r="L41" s="52">
+      <c r="L41" s="35">
         <f>分社漏斗数据!N15</f>
         <v>0.7745</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
-      <c r="Q41" s="58"/>
-      <c r="R41" s="58"/>
-      <c r="S41" s="58"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="58"/>
-      <c r="V41" s="58"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6973,7 +6971,7 @@
         <f>分社漏斗数据!C16</f>
         <v>4</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="40">
         <f>分社漏斗数据!D16</f>
         <v>2</v>
       </c>
@@ -6981,11 +6979,11 @@
         <f>分社漏斗数据!E16</f>
         <v>1</v>
       </c>
-      <c r="E42" s="51">
+      <c r="E42" s="46">
         <f>分社漏斗数据!F16</f>
         <v>0.5</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="35">
         <f>分社漏斗数据!G16</f>
         <v>0.5</v>
       </c>
@@ -7002,24 +7000,24 @@
         <f>分社漏斗数据!L16</f>
         <v>183</v>
       </c>
-      <c r="K42" s="52">
+      <c r="K42" s="35">
         <f>分社漏斗数据!M16</f>
         <v>0.7613</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="35">
         <f>分社漏斗数据!N16</f>
         <v>0.6376</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -7035,7 +7033,7 @@
         <f>分社漏斗数据!C17</f>
         <v>2</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="40">
         <f>分社漏斗数据!D17</f>
         <v>2</v>
       </c>
@@ -7043,11 +7041,11 @@
         <f>分社漏斗数据!E17</f>
         <v>1</v>
       </c>
-      <c r="E43" s="51">
+      <c r="E43" s="46">
         <f>分社漏斗数据!F17</f>
         <v>1</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="35">
         <f>分社漏斗数据!G17</f>
         <v>0.5</v>
       </c>
@@ -7064,24 +7062,24 @@
         <f>分社漏斗数据!L17</f>
         <v>143</v>
       </c>
-      <c r="K43" s="52">
+      <c r="K43" s="35">
         <f>分社漏斗数据!M17</f>
         <v>0.5501</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="35">
         <f>分社漏斗数据!N17</f>
         <v>0.7448</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -7097,7 +7095,7 @@
         <f>分社漏斗数据!C18</f>
         <v>1</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="40">
         <f>分社漏斗数据!D18</f>
         <v>1</v>
       </c>
@@ -7105,11 +7103,11 @@
         <f>分社漏斗数据!E18</f>
         <v>1</v>
       </c>
-      <c r="E44" s="51">
+      <c r="E44" s="46">
         <f>分社漏斗数据!F18</f>
         <v>1</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="35">
         <f>分社漏斗数据!G18</f>
         <v>1</v>
       </c>
@@ -7126,24 +7124,24 @@
         <f>分社漏斗数据!L18</f>
         <v>165</v>
       </c>
-      <c r="K44" s="52">
+      <c r="K44" s="35">
         <f>分社漏斗数据!M18</f>
         <v>0.745</v>
       </c>
-      <c r="L44" s="52">
+      <c r="L44" s="35">
         <f>分社漏斗数据!N18</f>
         <v>0.6346</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="58"/>
-      <c r="R44" s="58"/>
-      <c r="S44" s="58"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="58"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="30"/>
@@ -7153,41 +7151,41 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="29"/>
@@ -7198,7 +7196,7 @@
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
-      <c r="G47" s="54"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="28" t="s">
         <v>33</v>
       </c>
@@ -7207,15 +7205,15 @@
       <c r="K47" s="30"/>
       <c r="L47" s="30"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58"/>
-      <c r="T47" s="58"/>
-      <c r="U47" s="58"/>
-      <c r="V47" s="58"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -7223,7 +7221,7 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="39" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -7242,38 +7240,38 @@
         <v>23</v>
       </c>
       <c r="G48" s="29"/>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I48" s="46" t="s">
+      <c r="I48" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="46" t="s">
+      <c r="J48" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="46" t="s">
+      <c r="L48" s="43" t="s">
         <v>23</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="44" t="str">
+      <c r="A49" s="42" t="str">
         <f>分社学习数据!B2</f>
         <v>总部</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="33">
         <f>分社学习数据!C2</f>
         <v>1448</v>
       </c>
@@ -7285,11 +7283,11 @@
         <f>分社学习数据!E2</f>
         <v>440</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="35">
         <f>分社学习数据!F2</f>
         <v>0.7348</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="35">
         <f>分社学习数据!G2</f>
         <v>0.3039</v>
       </c>
@@ -7306,31 +7304,31 @@
         <f>分社学习数据!K2</f>
         <v>7277</v>
       </c>
-      <c r="K49" s="52">
+      <c r="K49" s="35">
         <f>分社学习数据!L2</f>
         <v>0.7026</v>
       </c>
-      <c r="L49" s="52">
+      <c r="L49" s="35">
         <f>分社学习数据!M2</f>
         <v>0.3922</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
-      <c r="Q49" s="58"/>
-      <c r="R49" s="58"/>
-      <c r="S49" s="58"/>
-      <c r="T49" s="58"/>
-      <c r="U49" s="58"/>
-      <c r="V49" s="58"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="44" t="str">
+      <c r="A50" s="42" t="str">
         <f>分社学习数据!B3</f>
         <v>杭州</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="33">
         <f>分社学习数据!C3</f>
         <v>1296</v>
       </c>
@@ -7342,11 +7340,11 @@
         <f>分社学习数据!E3</f>
         <v>930</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E50" s="35">
         <f>分社学习数据!F3</f>
         <v>0.7037</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F50" s="35">
         <f>分社学习数据!G3</f>
         <v>0.7176</v>
       </c>
@@ -7363,31 +7361,31 @@
         <f>分社学习数据!K3</f>
         <v>2243</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="35">
         <f>分社学习数据!L3</f>
         <v>0.6314</v>
       </c>
-      <c r="L50" s="55">
+      <c r="L50" s="48">
         <f>分社学习数据!M3</f>
         <v>0.5411</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="44" t="str">
+      <c r="A51" s="42" t="str">
         <f>分社学习数据!B4</f>
         <v>广州</v>
       </c>
-      <c r="B51" s="45">
+      <c r="B51" s="33">
         <f>分社学习数据!C4</f>
         <v>672</v>
       </c>
@@ -7399,11 +7397,11 @@
         <f>分社学习数据!E4</f>
         <v>159</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="35">
         <f>分社学习数据!F4</f>
         <v>0.7485</v>
       </c>
-      <c r="F51" s="52">
+      <c r="F51" s="35">
         <f>分社学习数据!G4</f>
         <v>0.2366</v>
       </c>
@@ -7420,31 +7418,31 @@
         <f>分社学习数据!K4</f>
         <v>741</v>
       </c>
-      <c r="K51" s="52">
+      <c r="K51" s="35">
         <f>分社学习数据!L4</f>
         <v>0.635</v>
       </c>
-      <c r="L51" s="52">
+      <c r="L51" s="35">
         <f>分社学习数据!M4</f>
         <v>0.365</v>
       </c>
       <c r="M51" s="1"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
-      <c r="Q51" s="58"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="44" t="str">
+      <c r="A52" s="42" t="str">
         <f>分社学习数据!B5</f>
         <v>上海</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="33">
         <f>分社学习数据!C5</f>
         <v>642</v>
       </c>
@@ -7456,11 +7454,11 @@
         <f>分社学习数据!E5</f>
         <v>180</v>
       </c>
-      <c r="E52" s="52">
+      <c r="E52" s="35">
         <f>分社学习数据!F5</f>
         <v>0.6044</v>
       </c>
-      <c r="F52" s="52">
+      <c r="F52" s="35">
         <f>分社学习数据!G5</f>
         <v>0.2804</v>
       </c>
@@ -7477,31 +7475,31 @@
         <f>分社学习数据!K5</f>
         <v>1322</v>
       </c>
-      <c r="K52" s="52">
+      <c r="K52" s="35">
         <f>分社学习数据!L5</f>
         <v>0.6404</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="35">
         <f>分社学习数据!M5</f>
         <v>0.3761</v>
       </c>
       <c r="M52" s="1"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58"/>
-      <c r="R52" s="58"/>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="58"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="44" t="str">
+      <c r="A53" s="42" t="str">
         <f>分社学习数据!B6</f>
         <v>北京</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="33">
         <f>分社学习数据!C6</f>
         <v>623</v>
       </c>
@@ -7513,11 +7511,11 @@
         <f>分社学习数据!E6</f>
         <v>292</v>
       </c>
-      <c r="E53" s="52">
+      <c r="E53" s="35">
         <f>分社学习数据!F6</f>
         <v>0.8395</v>
       </c>
-      <c r="F53" s="52">
+      <c r="F53" s="35">
         <f>分社学习数据!G6</f>
         <v>0.4687</v>
       </c>
@@ -7534,24 +7532,24 @@
         <f>分社学习数据!K6</f>
         <v>3102</v>
       </c>
-      <c r="K53" s="52">
+      <c r="K53" s="35">
         <f>分社学习数据!L6</f>
         <v>0.6765</v>
       </c>
-      <c r="L53" s="55">
+      <c r="L53" s="48">
         <f>分社学习数据!M6</f>
         <v>0.5109</v>
       </c>
       <c r="M53" s="1"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="30" t="str">
@@ -7570,11 +7568,11 @@
         <f>分社学习数据!E7</f>
         <v>106</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="35">
         <f>分社学习数据!F7</f>
         <v>0.7746</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F54" s="35">
         <f>分社学习数据!G7</f>
         <v>0.3732</v>
       </c>
@@ -7591,24 +7589,24 @@
         <f>分社学习数据!K7</f>
         <v>717</v>
       </c>
-      <c r="K54" s="52">
+      <c r="K54" s="35">
         <f>分社学习数据!L7</f>
         <v>0.7158</v>
       </c>
-      <c r="L54" s="52">
+      <c r="L54" s="35">
         <f>分社学习数据!M7</f>
         <v>0.4092</v>
       </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="30" t="str">
@@ -7627,11 +7625,11 @@
         <f>分社学习数据!E8</f>
         <v>67</v>
       </c>
-      <c r="E55" s="52">
+      <c r="E55" s="35">
         <f>分社学习数据!F8</f>
         <v>0.6183</v>
       </c>
-      <c r="F55" s="52">
+      <c r="F55" s="35">
         <f>分社学习数据!G8</f>
         <v>0.5115</v>
       </c>
@@ -7648,24 +7646,24 @@
         <f>分社学习数据!K8</f>
         <v>311</v>
       </c>
-      <c r="K55" s="52">
+      <c r="K55" s="35">
         <f>分社学习数据!L8</f>
         <v>0.5194</v>
       </c>
-      <c r="L55" s="52">
+      <c r="L55" s="35">
         <f>分社学习数据!M8</f>
         <v>0.5032</v>
       </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
-      <c r="Q55" s="58"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="58"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="58"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
@@ -7689,11 +7687,11 @@
         <f>分社学习数据!E9</f>
         <v>68</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="35">
         <f>分社学习数据!F9</f>
         <v>0.7813</v>
       </c>
-      <c r="F56" s="52">
+      <c r="F56" s="35">
         <f>分社学习数据!G9</f>
         <v>0.5313</v>
       </c>
@@ -7710,24 +7708,24 @@
         <f>分社学习数据!K9</f>
         <v>711</v>
       </c>
-      <c r="K56" s="52">
+      <c r="K56" s="35">
         <f>分社学习数据!L9</f>
         <v>0.6652</v>
       </c>
-      <c r="L56" s="52">
+      <c r="L56" s="35">
         <f>分社学习数据!M9</f>
         <v>0.6199</v>
       </c>
       <c r="M56" s="1"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="58"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
@@ -7751,11 +7749,11 @@
         <f>分社学习数据!E10</f>
         <v>46</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="35">
         <f>分社学习数据!F10</f>
         <v>0.7414</v>
       </c>
-      <c r="F57" s="52">
+      <c r="F57" s="35">
         <f>分社学习数据!G10</f>
         <v>0.3966</v>
       </c>
@@ -7772,24 +7770,24 @@
         <f>分社学习数据!K10</f>
         <v>667</v>
       </c>
-      <c r="K57" s="52">
+      <c r="K57" s="35">
         <f>分社学习数据!L10</f>
         <v>0.6928</v>
       </c>
-      <c r="L57" s="52">
+      <c r="L57" s="35">
         <f>分社学习数据!M10</f>
         <v>0.5554</v>
       </c>
       <c r="M57" s="1"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="58"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="51"/>
+      <c r="V57" s="51"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
@@ -7813,11 +7811,11 @@
         <f>分社学习数据!E11</f>
         <v>35</v>
       </c>
-      <c r="E58" s="52">
+      <c r="E58" s="35">
         <f>分社学习数据!F11</f>
         <v>0.6263</v>
       </c>
-      <c r="F58" s="52">
+      <c r="F58" s="35">
         <f>分社学习数据!G11</f>
         <v>0.3535</v>
       </c>
@@ -7834,24 +7832,24 @@
         <f>分社学习数据!K11</f>
         <v>286</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="35">
         <f>分社学习数据!L11</f>
         <v>0.5398</v>
       </c>
-      <c r="L58" s="52">
+      <c r="L58" s="35">
         <f>分社学习数据!M11</f>
         <v>0.5062</v>
       </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="58"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
@@ -7875,11 +7873,11 @@
         <f>分社学习数据!E12</f>
         <v>28</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="35">
         <f>分社学习数据!F12</f>
         <v>0.5957</v>
       </c>
-      <c r="F59" s="52">
+      <c r="F59" s="35">
         <f>分社学习数据!G12</f>
         <v>0.2979</v>
       </c>
@@ -7896,24 +7894,24 @@
         <f>分社学习数据!K12</f>
         <v>455</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="35">
         <f>分社学习数据!L12</f>
         <v>0.5691</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="35">
         <f>分社学习数据!M12</f>
         <v>0.4367</v>
       </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
-      <c r="Q59" s="58"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="58"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
@@ -7937,11 +7935,11 @@
         <f>分社学习数据!E13</f>
         <v>27</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="35">
         <f>分社学习数据!F13</f>
         <v>0.5375</v>
       </c>
-      <c r="F60" s="52">
+      <c r="F60" s="35">
         <f>分社学习数据!G13</f>
         <v>0.3375</v>
       </c>
@@ -7958,24 +7956,24 @@
         <f>分社学习数据!K13</f>
         <v>355</v>
       </c>
-      <c r="K60" s="52">
+      <c r="K60" s="35">
         <f>分社学习数据!L13</f>
         <v>0.5367</v>
       </c>
-      <c r="L60" s="52">
+      <c r="L60" s="35">
         <f>分社学习数据!M13</f>
         <v>0.5014</v>
       </c>
       <c r="M60" s="1"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="58"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="58"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="58"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
@@ -7999,11 +7997,11 @@
         <f>分社学习数据!E14</f>
         <v>18</v>
       </c>
-      <c r="E61" s="52">
+      <c r="E61" s="35">
         <f>分社学习数据!F14</f>
         <v>0.3585</v>
       </c>
-      <c r="F61" s="52">
+      <c r="F61" s="35">
         <f>分社学习数据!G14</f>
         <v>0.3396</v>
       </c>
@@ -8020,24 +8018,24 @@
         <f>分社学习数据!K14</f>
         <v>301</v>
       </c>
-      <c r="K61" s="52">
+      <c r="K61" s="35">
         <f>分社学习数据!L14</f>
         <v>0.5578</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="35">
         <f>分社学习数据!M14</f>
         <v>0.4407</v>
       </c>
       <c r="M61" s="1"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="58"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="58"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="58"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
@@ -8061,11 +8059,11 @@
         <f>分社学习数据!E15</f>
         <v>19</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="35">
         <f>分社学习数据!F15</f>
         <v>0.4681</v>
       </c>
-      <c r="F62" s="52">
+      <c r="F62" s="35">
         <f>分社学习数据!G15</f>
         <v>0.4043</v>
       </c>
@@ -8082,24 +8080,24 @@
         <f>分社学习数据!K15</f>
         <v>384</v>
       </c>
-      <c r="K62" s="52">
+      <c r="K62" s="35">
         <f>分社学习数据!L15</f>
         <v>0.4921</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="35">
         <f>分社学习数据!M15</f>
         <v>0.4689</v>
       </c>
       <c r="M62" s="1"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="58"/>
-      <c r="U62" s="58"/>
-      <c r="V62" s="58"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
@@ -8123,11 +8121,11 @@
         <f>分社学习数据!E16</f>
         <v>14</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="35">
         <f>分社学习数据!F16</f>
         <v>0.6429</v>
       </c>
-      <c r="F63" s="52">
+      <c r="F63" s="35">
         <f>分社学习数据!G16</f>
         <v>0.3333</v>
       </c>
@@ -8144,24 +8142,24 @@
         <f>分社学习数据!K16</f>
         <v>166</v>
       </c>
-      <c r="K63" s="52">
+      <c r="K63" s="35">
         <f>分社学习数据!L16</f>
         <v>0.4583</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="35">
         <f>分社学习数据!M16</f>
         <v>0.5321</v>
       </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
-      <c r="Q63" s="58"/>
-      <c r="R63" s="58"/>
-      <c r="S63" s="58"/>
-      <c r="T63" s="58"/>
-      <c r="U63" s="58"/>
-      <c r="V63" s="58"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
@@ -8185,11 +8183,11 @@
         <f>分社学习数据!E17</f>
         <v>8</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="35">
         <f>分社学习数据!F17</f>
         <v>0.6</v>
       </c>
-      <c r="F64" s="52">
+      <c r="F64" s="35">
         <f>分社学习数据!G17</f>
         <v>0.32</v>
       </c>
@@ -8206,24 +8204,24 @@
         <f>分社学习数据!K17</f>
         <v>190</v>
       </c>
-      <c r="K64" s="52">
+      <c r="K64" s="35">
         <f>分社学习数据!L17</f>
         <v>0.4944</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="35">
         <f>分社学习数据!M17</f>
         <v>0.5278</v>
       </c>
       <c r="M64" s="1"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
-      <c r="Q64" s="58"/>
-      <c r="R64" s="58"/>
-      <c r="S64" s="58"/>
-      <c r="T64" s="58"/>
-      <c r="U64" s="58"/>
-      <c r="V64" s="58"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
@@ -8247,11 +8245,11 @@
         <f>分社学习数据!E18</f>
         <v>0</v>
       </c>
-      <c r="E65" s="52">
+      <c r="E65" s="35">
         <f>分社学习数据!F18</f>
         <v>0</v>
       </c>
-      <c r="F65" s="52">
+      <c r="F65" s="35">
         <f>分社学习数据!G18</f>
         <v>0</v>
       </c>
@@ -8268,24 +8266,24 @@
         <f>分社学习数据!K18</f>
         <v>1</v>
       </c>
-      <c r="K65" s="52">
+      <c r="K65" s="35">
         <f>分社学习数据!L18</f>
         <v>0</v>
       </c>
-      <c r="L65" s="52">
+      <c r="L65" s="35">
         <f>分社学习数据!M18</f>
         <v>1</v>
       </c>
       <c r="M65" s="1"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="58"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="30"/>
@@ -8298,15 +8296,15 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
-      <c r="Q66" s="58"/>
-      <c r="R66" s="58"/>
-      <c r="S66" s="58"/>
-      <c r="T66" s="58"/>
-      <c r="U66" s="58"/>
-      <c r="V66" s="58"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="51"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="30"/>
@@ -8319,15 +8317,15 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="58"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="58"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="58"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="51"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
@@ -8345,15 +8343,15 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="58"/>
-      <c r="R68" s="58"/>
-      <c r="S68" s="58"/>
-      <c r="T68" s="58"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="58"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="2"/>
@@ -8369,15 +8367,15 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="58"/>
-      <c r="R69" s="58"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="58"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="58"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2"/>
